--- a/medicine/Sexualité et sexologie/Emmanuelle_(film,_1974)/Emmanuelle_(film,_1974).xlsx
+++ b/medicine/Sexualité et sexologie/Emmanuelle_(film,_1974)/Emmanuelle_(film,_1974).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Emmanuelle est un film érotique français réalisé par Just Jaeckin sur un scénario de Jean-Louis Richard d'après le roman éponyme d'Emmanuelle Arsan, mettant en scène Sylvia Kristel dans le rôle-titre[1], Alain Cuny, Marika Green et Christine Boisson. Distribué par Parafrance Films, ce film est sorti le 26 juin 1974 en France. Il a donné lieu à une série de films et de téléfilms mettant en scène le même personnage.
-Entouré à sa sortie d'un parfum de scandale, le film joint érotisme chic et décors exotiques[2] dans un scénario qui explore plusieurs aspects d'une sexualité découverte ou fantasmée, mais sans scènes explicites, les rapports sexuels étant plus suggérés que réellement montrés.
-Ce fut l'un des plus gros succès du cinéma français, attirant dans les salles françaises près de neuf millions de spectateurs et quarante-cinq millions dans le monde[3] (d'autres sources mentionnent 8,7 millions de spectateurs en France et cent cinquante millions dans le monde[4]). Le succès fut tel qu'une salle le programma à Paris pendant plus de dix ans, proposant en été un sous-titrage en anglais pour les touristes[5].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Emmanuelle est un film érotique français réalisé par Just Jaeckin sur un scénario de Jean-Louis Richard d'après le roman éponyme d'Emmanuelle Arsan, mettant en scène Sylvia Kristel dans le rôle-titre, Alain Cuny, Marika Green et Christine Boisson. Distribué par Parafrance Films, ce film est sorti le 26 juin 1974 en France. Il a donné lieu à une série de films et de téléfilms mettant en scène le même personnage.
+Entouré à sa sortie d'un parfum de scandale, le film joint érotisme chic et décors exotiques dans un scénario qui explore plusieurs aspects d'une sexualité découverte ou fantasmée, mais sans scènes explicites, les rapports sexuels étant plus suggérés que réellement montrés.
+Ce fut l'un des plus gros succès du cinéma français, attirant dans les salles françaises près de neuf millions de spectateurs et quarante-cinq millions dans le monde (d'autres sources mentionnent 8,7 millions de spectateurs en France et cent cinquante millions dans le monde). Le succès fut tel qu'une salle le programma à Paris pendant plus de dix ans, proposant en été un sous-titrage en anglais pour les touristes.
 Le film lança la carrière cinématographique de Sylvia Kristel, définitivement identifiée au personnage d'Emmanuelle qu'elle incarna à nouveau à plusieurs reprises.
 </t>
         </is>
@@ -514,7 +526,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Emmanuelle s'envole de Paris pour Bangkok afin d'y rejoindre Jean, son mari qui occupe un poste de diplomate ; lorsqu'il lui demande si elle a eu des amants pendant qu'elle était seule à Paris, elle lui affirme que non.
 Pendant l'après-midi, ils font l'amour, épiés secrètement par deux serviteurs : la jeune servante est poursuivie par le majordome, dans une fuite à travers le parc, elle y est rattrapée et tout se termine par une scène d'amour torride et passionnée.
@@ -559,7 +573,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Titre original : Emmanuelle
 Réalisation : Just Jaeckin
@@ -573,7 +589,7 @@
 Sociétés de production : Trinacra Films, Orphée Productions
 Société de distribution : Parafrance Films
 Format : couleur (Eastmancolor) - 1.66 : 1 • 35 mm - Mono
-Budget : estimé à 2,4 millions de francs[6] (soit environ 2,05 millions d'euros en 2022[7])
+Budget : estimé à 2,4 millions de francs (soit environ 2,05 millions d'euros en 2022)
 Pays de production :  France
 Langue originale : français
 Genre : drame, érotique
@@ -608,7 +624,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Sylvia Kristel : Emmanuelle
 Alain Cuny : Mario
@@ -653,15 +671,14 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Développement
-Les années 1960-1970 étaient une époque dite de « libération des mœurs »[8] mais le film érotique cherchait encore sa place entre une production de plus en plus hard et un cinéma traditionnel qui jouait avec la séduction.
-Le producteur Yves Rousset-Rouard acquit les droits d'un roman à succès d'Emmanuelle Arsan, Emmanuelle, et en proposa l'adaptation à un jeune photographe de charme, Just Jaeckin. Celui-ci n'avait qu'une expérience de la photographie et de la publicité. Le casting réunit Sylvia Kristel, une jeune actrice inconnue (et pour cause, puisqu'il s'agit d'un modèle néerlandais dont c'est le deuxième film) et Alain Cuny, un acteur de renom qui avait connu son heure de gloire avec Les Visiteurs du soir de Marcel Carné[9].
-Distribution
-Alain Cuny, l'acteur principal ayant quarante-quatre ans de plus[10] que Sylvia Kristel[11], accepta d'endosser le rôle de Mario à condition que son nom ne soit pas au générique. Le succès du film venu, il se révolta de ce que son nom n'était pas assez visible sur l'affiche.
-Tournage
-Les scènes du film ont été tournées entre le 10 décembre 1973 et le 6 février 1974 à Bangkok en Thaïlande, également aux Seychelles[12]. L'équipe tournera à une cascade très près d'un temple bouddhiste. La police viendra les interpeller[13].
-Musique
-La bande originale est due au chanteur Pierre Bachelet[14]. Une des mélodies utilisées dans le film s'avéra cependant un plagiat de Larks' Tongues in Aspic du groupe britannique King Crimson. Le guitariste du groupe, Robert Fripp, poursuivit les producteurs d'Emmanuelle en justice l'année suivant sa sortie et obtint gain de cause.
+          <t>Développement</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les années 1960-1970 étaient une époque dite de « libération des mœurs » mais le film érotique cherchait encore sa place entre une production de plus en plus hard et un cinéma traditionnel qui jouait avec la séduction.
+Le producteur Yves Rousset-Rouard acquit les droits d'un roman à succès d'Emmanuelle Arsan, Emmanuelle, et en proposa l'adaptation à un jeune photographe de charme, Just Jaeckin. Celui-ci n'avait qu'une expérience de la photographie et de la publicité. Le casting réunit Sylvia Kristel, une jeune actrice inconnue (et pour cause, puisqu'il s'agit d'un modèle néerlandais dont c'est le deuxième film) et Alain Cuny, un acteur de renom qui avait connu son heure de gloire avec Les Visiteurs du soir de Marcel Carné.
 </t>
         </is>
       </c>
@@ -687,96 +704,325 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
+          <t>Production</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Distribution</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Alain Cuny, l'acteur principal ayant quarante-quatre ans de plus que Sylvia Kristel, accepta d'endosser le rôle de Mario à condition que son nom ne soit pas au générique. Le succès du film venu, il se révolta de ce que son nom n'était pas assez visible sur l'affiche.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Emmanuelle_(film,_1974)</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Sexualité et sexologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Emmanuelle_(film,_1974)</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Production</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Tournage</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les scènes du film ont été tournées entre le 10 décembre 1973 et le 6 février 1974 à Bangkok en Thaïlande, également aux Seychelles. L'équipe tournera à une cascade très près d'un temple bouddhiste. La police viendra les interpeller.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Emmanuelle_(film,_1974)</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Sexualité et sexologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Emmanuelle_(film,_1974)</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Production</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Musique</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La bande originale est due au chanteur Pierre Bachelet. Une des mélodies utilisées dans le film s'avéra cependant un plagiat de Larks' Tongues in Aspic du groupe britannique King Crimson. Le guitariste du groupe, Robert Fripp, poursuivit les producteurs d'Emmanuelle en justice l'année suivant sa sortie et obtint gain de cause.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Emmanuelle_(film,_1974)</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Sexualité et sexologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Emmanuelle_(film,_1974)</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
           <t>Histoire du film</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Censure
-Emmanuelle, entouré d'un parfum de scandale, provoqua un vaste débat en France sur la censure des œuvres érotiques. Le film aurait dû, selon la première commission de censure en avril 1974, subir de nombreuses coupes. Cependant, la mort la même année du président de la République française, Georges Pompidou, changea la donne. Un nouveau secrétaire d'État à la Culture, Michel Guy, fut nommé en remplacement de Maurice Druon. Alors que ce dernier était pour la répression, allant jusqu'à l'interdiction et la censure, le nouveau ministre est plus modéré et affirme : 
-« Tous les films doivent pouvoir sortir sans distinction. Je ne me reconnais pas le droit d'interdire à des spectateurs adultes la possibilité de voir les films qu'ils désirent. En 1975, les gens choisissent ce qu'ils veulent voir et je dois les laisser libres »[15].
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Censure</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Emmanuelle, entouré d'un parfum de scandale, provoqua un vaste débat en France sur la censure des œuvres érotiques. Le film aurait dû, selon la première commission de censure en avril 1974, subir de nombreuses coupes. Cependant, la mort la même année du président de la République française, Georges Pompidou, changea la donne. Un nouveau secrétaire d'État à la Culture, Michel Guy, fut nommé en remplacement de Maurice Druon. Alors que ce dernier était pour la répression, allant jusqu'à l'interdiction et la censure, le nouveau ministre est plus modéré et affirme : 
+« Tous les films doivent pouvoir sortir sans distinction. Je ne me reconnais pas le droit d'interdire à des spectateurs adultes la possibilité de voir les films qu'ils désirent. En 1975, les gens choisissent ce qu'ils veulent voir et je dois les laisser libres ».
 Suivant la promesse du candidat Valéry Giscard d'Estaing d'abolir la censure, il décide alors de ne plus systématiquement suivre la commission, permettant ainsi au film de sortir en salles au prix de quelques coupes, mineures selon le producteur. Il est simplement interdit aux moins de 18 ans. La même aventure arrivera à sa suite Emmanuelle 2.
-Succès
-Le film sort le 26 juin 1974 dans une combinaison importante (pour l'époque) de 18 salles, soit une capacité de 8 000 fauteuils sur la première semaine (à peu près l'équivalent de L'Arnaque ou du Retour du Grand Blond qui sortent la même année). Après une première journée à 15 100 spectateurs à Paris-périphérie, le film réalise la deuxième meilleure semaine de l'année avec 126 530 entrées. La baisse des semaines suivantes est minime (105 671, 110 199 et 104 501 entrées). Au bout de huit semaines, le score est de 745 000 spectateurs Paris-périphérie.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Emmanuelle_(film,_1974)</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Sexualité et sexologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Emmanuelle_(film,_1974)</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Histoire du film</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Succès</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le film sort le 26 juin 1974 dans une combinaison importante (pour l'époque) de 18 salles, soit une capacité de 8 000 fauteuils sur la première semaine (à peu près l'équivalent de L'Arnaque ou du Retour du Grand Blond qui sortent la même année). Après une première journée à 15 100 spectateurs à Paris-périphérie, le film réalise la deuxième meilleure semaine de l'année avec 126 530 entrées. La baisse des semaines suivantes est minime (105 671, 110 199 et 104 501 entrées). Au bout de huit semaines, le score est de 745 000 spectateurs Paris-périphérie.
 À partir de fin 1975, la loi instituant le classement X va relancer le succès de la production de films érotiques de luxe. En effet, privée de l'accès aux films X marqués d'infamie, une partie du public se retourne vers le film de charme. Emmanuelle devient le symbole du cinéma érotique « acceptable ».
 Précurseur, le film de Just Jaeckin devient l'objet d'un culte à travers le monde. Aux États-Unis, Emmanuelle est classé X, puis ressort dans une version expurgée la même année. En 1978, c'est le plus gros succès d'un film francophone sur le sol américain. Le Japon est également conquis (16 000 000 dollars de recette).
-En France, le succès se transforme en triomphe historique. Au bout de quatre ans, le score est de 2 500 000 entrées à Paris et de 7 350 000 sur la France. Emmanuelle est projeté pendant 553 semaines sur les Champs-Élysées (UGC Triomphe) ; les cars de Japonais s'y succèdent et les mineurs français y accourent dès qu'ils atteignent leur majorité. Finalement, le film est retiré en 1985 en ayant attiré 8 894 000 spectateurs en France. Le score sur Paris intra-muros est éloquent : 3 269 187 spectateurs[16] alors que la population parisienne tourne autour de 2 000 000.
-En Espagne, Emmanuelle est le 2e long métrage français ayant fait le plus d'entrées depuis au moins 1961 (au 23 septembre 2012) avec 3 680 502 entrées[17].
+En France, le succès se transforme en triomphe historique. Au bout de quatre ans, le score est de 2 500 000 entrées à Paris et de 7 350 000 sur la France. Emmanuelle est projeté pendant 553 semaines sur les Champs-Élysées (UGC Triomphe) ; les cars de Japonais s'y succèdent et les mineurs français y accourent dès qu'ils atteignent leur majorité. Finalement, le film est retiré en 1985 en ayant attiré 8 894 000 spectateurs en France. Le score sur Paris intra-muros est éloquent : 3 269 187 spectateurs alors que la population parisienne tourne autour de 2 000 000.
+En Espagne, Emmanuelle est le 2e long métrage français ayant fait le plus d'entrées depuis au moins 1961 (au 23 septembre 2012) avec 3 680 502 entrées.
 Des suites sont tournées avec toujours Sylvia Kristel en femme qui se libère (d'autres films essayèrent également de surfer sur la vague). Le succès est toujours là, du moins jusqu'au quatrième épisode (en 1984), qui marque la dernière apparition de l'actrice néerlandaise dans le rôle qui la rendit célèbre :
-Emmanuelle 2 (2 249 707 spectateurs en France)[18]
-Good-bye, Emmanuelle (990 953 spectateurs en France)[18]
-Emmanuelle 4 (1 277 142 spectateurs en France)[18]
-Emmanuelle 5 (426 506 spectateurs en France)[18]
+Emmanuelle 2 (2 249 707 spectateurs en France)
+Good-bye, Emmanuelle (990 953 spectateurs en France)
+Emmanuelle 4 (1 277 142 spectateurs en France)
+Emmanuelle 5 (426 506 spectateurs en France)
 Emmanuelle 6 (circa 200 000 spectateurs en France)
 Emmanuelle au 7e ciel (N/A spectateurs en France)
 Sylvia Kristel revint dans les années 1990 en guest-star dans une série TV qui évoquait à nouveau les aventures érotiques de l'héroïne d'Emmanuelle Arsan. Quant à Just Jaeckin, il connut encore le succès dans la même ligne avec Histoire d'O ou Madame Claude. Il ne résista pas à la disparition du genre et abandonna le cinéma après l'échec de Gwendoline en 1984.
-Box-office
-Le film a été vu par cinquante millions de spectateurs dans le monde entier[3],[19]. Il aurait rapporté 112 100 000 $ dans le monde[20]
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Emmanuelle_(film,_1974)</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Sexualité et sexologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Emmanuelle_(film,_1974)</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Histoire du film</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Succès</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Box-office</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le film a été vu par cinquante millions de spectateurs dans le monde entier,. Il aurait rapporté 112 100 000 $ dans le monde
  Sauf indication contraire ou complémentaire, les informations mentionnées dans cette section peuvent être confirmées par la base de données IMDb.
-Version longue
-Depuis, la carrière d'Emmanuelle appartient à la télévision, qui le diffuse régulièrement en deuxième partie de soirée. La version française à succès n'était cependant pas complète. La longue scène d'amour entre Emmanuelle et Bee avait été coupée. Elle est aujourd'hui généralement rétablie à la télévision.
 </t>
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Emmanuelle_(film,_1974)</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Portail:Sexualité et sexologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Emmanuelle_(film,_1974)</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Emmanuelle_(film,_1974)</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Sexualité et sexologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Emmanuelle_(film,_1974)</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Histoire du film</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Version longue</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Depuis, la carrière d'Emmanuelle appartient à la télévision, qui le diffuse régulièrement en deuxième partie de soirée. La version française à succès n'était cependant pas complète. La longue scène d'amour entre Emmanuelle et Bee avait été coupée. Elle est aujourd'hui généralement rétablie à la télévision.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Emmanuelle_(film,_1974)</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Sexualité et sexologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Emmanuelle_(film,_1974)</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
         <is>
           <t>Autour du film</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
         <is>
           <t>Just Jaeckin se vit confier l'année suivante l'adaptation d'un autre roman érotique célèbre, Histoire d'O, et se spécialisa sur le créneau des films érotiques « haut de gamme », retrouvant Sylvia Kristel en 1981 pour une adaptation de L'Amant de Lady Chatterley.
-Les fauteuils asiatiques en rotin à dossier plus ou moins larges vus dans le film, ont donné lieu à une gamme de produits commercialisés sous le nom de « fauteuil Emmanuelle ». Si la première affiche du film représentait une pomme, les suivantes montrent Emmanuelle assise, seins nus, dans « le » célèbre fauteuil en rotin, en fait des fauteuils du même type mais différents. Ces fauteuils étaient baptisés « fauteuils Pomare »[34], du nom d'un roi tahitien, avant la sortie du film. On les voit notamment dans les films Safe in Hell (1931), Le Jardin secret, La Femme au gardénia, La Garçonnière, Les Tribulations d'un Chinois en Chine, Oscar, Le Pacha, Le Gendarme se marie, Le Clan des Siciliens, Les Choses de la vie , et L'aventure c'est l'aventure sorti deux ans avant Emmanuelle. La Tour infernale sorti la même année  quelques mois seulement après Emmanuelle . Le Fauteuil Pomare est également visible dans plusieurs épisodes de Columbo sortis avant Emmanuelle.
+Les fauteuils asiatiques en rotin à dossier plus ou moins larges vus dans le film, ont donné lieu à une gamme de produits commercialisés sous le nom de « fauteuil Emmanuelle ». Si la première affiche du film représentait une pomme, les suivantes montrent Emmanuelle assise, seins nus, dans « le » célèbre fauteuil en rotin, en fait des fauteuils du même type mais différents. Ces fauteuils étaient baptisés « fauteuils Pomare », du nom d'un roi tahitien, avant la sortie du film. On les voit notamment dans les films Safe in Hell (1931), Le Jardin secret, La Femme au gardénia, La Garçonnière, Les Tribulations d'un Chinois en Chine, Oscar, Le Pacha, Le Gendarme se marie, Le Clan des Siciliens, Les Choses de la vie , et L'aventure c'est l'aventure sorti deux ans avant Emmanuelle. La Tour infernale sorti la même année  quelques mois seulement après Emmanuelle . Le Fauteuil Pomare est également visible dans plusieurs épisodes de Columbo sortis avant Emmanuelle.
 Les photographies artistiques les plus mythiques d'Emmanuelle qui firent entrer le personnage de Sylvia Kristel dans les musées furent réalisées peu après le film par la photographe française Irina Ionesco.
 D'une voix naturellement assez rauque, Christine Boisson fut doublée par la comédienne Sylviane Margollé surtout connue pour ses accents juvéniles.</t>
         </is>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Emmanuelle_(film,_1974)</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Portail:Sexualité et sexologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Emmanuelle_(film,_1974)</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Emmanuelle_(film,_1974)</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Sexualité et sexologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Emmanuelle_(film,_1974)</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
         <is>
           <t>Dans la culture populaire</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
         <is>
           <t xml:space="preserve">Le film est au centre de Je Zappe, un sketch de Raymond Devos. L'humoriste y joue un homme hésitant à regarder le film, programmé à la télévision, alors que son épouse fait des allers et retours dans la pièce où se trouve le poste de télévision.
 </t>
